--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/template_file_format.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/template_file_format.xlsx
@@ -82,7 +82,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -164,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,6 +175,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -197,7 +205,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -215,18 +223,18 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -235,13 +243,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -250,13 +258,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -265,13 +273,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -280,13 +288,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -295,13 +303,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -310,13 +318,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -325,13 +333,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="1" t="n">

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/template_file_format.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/template_file_format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Text File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">xml</t>
@@ -205,7 +208,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -237,9 +240,8 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,14 +249,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,59 +263,55 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,29 +319,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
